--- a/week4_scripts/week4_processed_results/week4_processed_results.xlsx
+++ b/week4_scripts/week4_processed_results/week4_processed_results.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 1x1 8 H2 bridge_site 0 </t>
+          <t>100_1x1_8_H2_bridge_site_0</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 1x1 8 H2 bridge_site 45 </t>
+          <t>100_1x1_8_H2_bridge_site_45</t>
         </is>
       </c>
     </row>
@@ -520,7 +520,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 1x1 8 H2 bridge_site 90 </t>
+          <t>100_1x1_8_H2_bridge_site_90</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 1x1 8 H2 hollow_site 0 </t>
+          <t>100_1x1_8_H2_hollow_site_0</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 1x1 8 H2 hollow_site 45 </t>
+          <t>100_1x1_8_H2_hollow_site_45</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 1x1 8 H2 hollow_site 90 </t>
+          <t>100_1x1_8_H2_hollow_site_90</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 1x1 8 H2 top_site 0 </t>
+          <t>100_1x1_8_H2_top_site_0</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 1x1 8 H2 top_site 45 </t>
+          <t>100_1x1_8_H2_top_site_45</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 1x1 8 H2 top_site 90 </t>
+          <t>100_1x1_8_H2_top_site_90</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 2x2 8 H2 bridge_site 0 </t>
+          <t>100_2x2_8_H2_bridge_site_0</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 2x2 8 H2 bridge_site 45 </t>
+          <t>100_2x2_8_H2_bridge_site_45</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 2x2 8 H2 bridge_site 90 </t>
+          <t>100_2x2_8_H2_bridge_site_90</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 2x2 8 H2 hollow_site 0 </t>
+          <t>100_2x2_8_H2_hollow_site_0</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 2x2 8 H2 hollow_site 45 </t>
+          <t>100_2x2_8_H2_hollow_site_45</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 2x2 8 H2 hollow_site 90 </t>
+          <t>100_2x2_8_H2_hollow_site_90</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 2x2 8 H2 top_site 0 </t>
+          <t>100_2x2_8_H2_top_site_0</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 2x2 8 H2 top_site 45 </t>
+          <t>100_2x2_8_H2_top_site_45</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 2x2 8 H2 top_site 90 </t>
+          <t>100_2x2_8_H2_top_site_90</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 3x3 8 H bridge_site </t>
+          <t>100_3x3_8_H_bridge_site</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 3x3 8 H hollow_site </t>
+          <t>100_3x3_8_H_hollow_site</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 3x3 8 H top_site </t>
+          <t>100_3x3_8_H_top_site</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 3x3 8 H2 bridge_site 0 </t>
+          <t>100_3x3_8_H2_bridge_site_0</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 3x3 8 H2 bridge_site 45 </t>
+          <t>100_3x3_8_H2_bridge_site_45</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 3x3 8 H2 bridge_site 90 </t>
+          <t>100_3x3_8_H2_bridge_site_90</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 3x3 8 H2 hollow_site 0 </t>
+          <t>100_3x3_8_H2_hollow_site_0</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 3x3 8 H2 hollow_site 45 </t>
+          <t>100_3x3_8_H2_hollow_site_45</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 3x3 8 H2 hollow_site 90 </t>
+          <t>100_3x3_8_H2_hollow_site_90</t>
         </is>
       </c>
     </row>
@@ -995,7 +995,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 3x3 8 H2 top_site 0 </t>
+          <t>100_3x3_8_H2_top_site_0</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 3x3 8 H2 top_site 45 </t>
+          <t>100_3x3_8_H2_top_site_45</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 3x3 8 H2 top_site 90 </t>
+          <t>100_3x3_8_H2_top_site_90</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 3x3 8 O bridge_site </t>
+          <t>100_3x3_8_O_bridge_site</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 3x3 8 O hollow_site </t>
+          <t>100_3x3_8_O_hollow_site</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 3x3 8 O top_site </t>
+          <t>100_3x3_8_O_top_site</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 1x1 8 H2 bridge_site 1th bridge_site 0 </t>
+          <t>110_1x1_8_H2_bridge_site_1th bridge_site_0</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 1x1 8 H2 bridge_site 1th bridge_site 45 </t>
+          <t>110_1x1_8_H2_bridge_site_1th bridge_site_45</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 1x1 8 H2 bridge_site 1th bridge_site 90 </t>
+          <t>110_1x1_8_H2_bridge_site_1th bridge_site_90</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 1x1 8 H2 bridge_site 2th bridge_site 0 </t>
+          <t>110_1x1_8_H2_bridge_site_2th bridge_site_0</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 1x1 8 H2 bridge_site 2th bridge_site 45 </t>
+          <t>110_1x1_8_H2_bridge_site_2th bridge_site_45</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 1x1 8 H2 bridge_site 2th bridge_site 90 </t>
+          <t>110_1x1_8_H2_bridge_site_2th bridge_site_90</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 1x1 8 H2 hollow_site 0 </t>
+          <t>110_1x1_8_H2_hollow_site_0</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 1x1 8 H2 hollow_site 45 </t>
+          <t>110_1x1_8_H2_hollow_site_45</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 1x1 8 H2 hollow_site 90 </t>
+          <t>110_1x1_8_H2_hollow_site_90</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 1x1 8 H2 top_site 0 </t>
+          <t>110_1x1_8_H2_top_site_0</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 1x1 8 H2 top_site 45 </t>
+          <t>110_1x1_8_H2_top_site_45</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 1x1 8 H2 top_site 90 </t>
+          <t>110_1x1_8_H2_top_site_90</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 2x2 8 H2 bridge_site 1th bridge_site 0 </t>
+          <t>110_2x2_8_H2_bridge_site_1th bridge_site_0</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 2x2 8 H2 bridge_site 1th bridge_site 45 </t>
+          <t>110_2x2_8_H2_bridge_site_1th bridge_site_45</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 2x2 8 H2 bridge_site 1th bridge_site 90 </t>
+          <t>110_2x2_8_H2_bridge_site_1th bridge_site_90</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 2x2 8 H2 bridge_site 2th bridge_site 0 </t>
+          <t>110_2x2_8_H2_bridge_site_2th bridge_site_0</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 2x2 8 H2 bridge_site 2th bridge_site 45 </t>
+          <t>110_2x2_8_H2_bridge_site_2th bridge_site_45</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 2x2 8 H2 bridge_site 2th bridge_site 90 </t>
+          <t>110_2x2_8_H2_bridge_site_2th bridge_site_90</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 2x2 8 H2 hollow_site 0 </t>
+          <t>110_2x2_8_H2_hollow_site_0</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 2x2 8 H2 hollow_site 45 </t>
+          <t>110_2x2_8_H2_hollow_site_45</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 2x2 8 H2 hollow_site 90 </t>
+          <t>110_2x2_8_H2_hollow_site_90</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 2x2 8 H2 top_site 0 </t>
+          <t>110_2x2_8_H2_top_site_0</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 2x2 8 H2 top_site 45 </t>
+          <t>110_2x2_8_H2_top_site_45</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 2x2 8 H2 top_site 90 </t>
+          <t>110_2x2_8_H2_top_site_90</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">111 1x1 8 H2 bridge_site 0 </t>
+          <t>111_1x1_8_H2_bridge_site_0</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve">111 1x1 8 H2 bridge_site 45 </t>
+          <t>111_1x1_8_H2_bridge_site_45</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve">111 1x1 8 H2 bridge_site 90 </t>
+          <t>111_1x1_8_H2_bridge_site_90</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve">111 1x1 8 H2 hollow_site 1th hollow_site 0 </t>
+          <t>111_1x1_8_H2_hollow_site_1th hollow_site_0</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">111 1x1 8 H2 hollow_site 1th hollow_site 45 </t>
+          <t>111_1x1_8_H2_hollow_site_1th hollow_site_45</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve">111 1x1 8 H2 hollow_site 1th hollow_site 90 </t>
+          <t>111_1x1_8_H2_hollow_site_1th hollow_site_90</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">111 1x1 8 H2 hollow_site 2th hollow_site 0 </t>
+          <t>111_1x1_8_H2_hollow_site_2th hollow_site_0</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve">111 1x1 8 H2 hollow_site 2th hollow_site 45 </t>
+          <t>111_1x1_8_H2_hollow_site_2th hollow_site_45</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve">111 1x1 8 H2 hollow_site 2th hollow_site 90 </t>
+          <t>111_1x1_8_H2_hollow_site_2th hollow_site_90</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve">111 1x1 8 H2 top_site 0 </t>
+          <t>111_1x1_8_H2_top_site_0</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve">111 1x1 8 H2 top_site 45 </t>
+          <t>111_1x1_8_H2_top_site_45</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve">111 1x1 8 H2 top_site 90 </t>
+          <t>111_1x1_8_H2_top_site_90</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve">111 2x2 8 H2 bridge_site 0 </t>
+          <t>111_2x2_8_H2_bridge_site_0</t>
         </is>
       </c>
     </row>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve">111 2x2 8 H2 bridge_site 45 </t>
+          <t>111_2x2_8_H2_bridge_site_45</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">111 2x2 8 H2 bridge_site 90 </t>
+          <t>111_2x2_8_H2_bridge_site_90</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve">111 2x2 8 H2 hollow_site 1th hollow_site 0 </t>
+          <t>111_2x2_8_H2_hollow_site_1th hollow_site_0</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve">111 2x2 8 H2 hollow_site 1th hollow_site 45 </t>
+          <t>111_2x2_8_H2_hollow_site_1th hollow_site_45</t>
         </is>
       </c>
     </row>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve">111 2x2 8 H2 hollow_site 1th hollow_site 90 </t>
+          <t>111_2x2_8_H2_hollow_site_1th hollow_site_90</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve">111 2x2 8 H2 hollow_site 2th hollow_site 0 </t>
+          <t>111_2x2_8_H2_hollow_site_2th hollow_site_0</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve">111 2x2 8 H2 hollow_site 2th hollow_site 45 </t>
+          <t>111_2x2_8_H2_hollow_site_2th hollow_site_45</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve">111 2x2 8 H2 hollow_site 2th hollow_site 90 </t>
+          <t>111_2x2_8_H2_hollow_site_2th hollow_site_90</t>
         </is>
       </c>
     </row>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve">111 2x2 8 H2 top_site 0 </t>
+          <t>111_2x2_8_H2_top_site_0</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve">111 2x2 8 H2 top_site 45 </t>
+          <t>111_2x2_8_H2_top_site_45</t>
         </is>
       </c>
     </row>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve">111 2x2 8 H2 top_site 90 </t>
+          <t>111_2x2_8_H2_top_site_90</t>
         </is>
       </c>
     </row>
